--- a/denmark1991_2005.xlsx
+++ b/denmark1991_2005.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="UD1" sheetId="2" r:id="rId2"/>
+    <x:sheet name="PA1" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <x:si>
-    <x:t>Admissions by diagnosis, age and time</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+  <x:si>
+    <x:t>Hospital patients by dominant diagnosis, region, age and time</x:t>
   </x:si>
   <x:si>
     <x:t>Units: Number</x:t>
@@ -67,7 +67,10 @@
     <x:t>2005</x:t>
   </x:si>
   <x:si>
-    <x:t>Bronchitis, emphysema and asthma</x:t>
+    <x:t>DISEASES OF THE RESPIRATORY ORGANS, TOTAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>All Denmark</x:t>
   </x:si>
   <x:si>
     <x:t>Age, total</x:t>
@@ -540,133 +543,134 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:Q25"/>
+  <x:dimension ref="A1:R25"/>
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="18.270625" style="0" customWidth="1"/>
-    <x:col min="3" max="17" width="6.980625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.840625000000001" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="18.270625" style="0" customWidth="1"/>
+    <x:col min="4" max="18" width="6.980625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:17">
+    <x:row r="1" spans="1:18">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:17">
+    <x:row r="2" spans="1:18">
       <x:c r="A2" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:17">
-      <x:c r="C3" s="3" t="s">
+    <x:row r="3" spans="1:18">
+      <x:c r="D3" s="3" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D3" s="3" t="s">
+      <x:c r="E3" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E3" s="3" t="s">
+      <x:c r="F3" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F3" s="3" t="s">
+      <x:c r="G3" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G3" s="3" t="s">
+      <x:c r="H3" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H3" s="3" t="s">
+      <x:c r="I3" s="3" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I3" s="3" t="s">
+      <x:c r="J3" s="3" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="J3" s="3" t="s">
+      <x:c r="K3" s="3" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="K3" s="3" t="s">
+      <x:c r="L3" s="3" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L3" s="3" t="s">
+      <x:c r="M3" s="3" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="M3" s="3" t="s">
+      <x:c r="N3" s="3" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="N3" s="3" t="s">
+      <x:c r="O3" s="3" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="O3" s="3" t="s">
+      <x:c r="P3" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="P3" s="3" t="s">
+      <x:c r="Q3" s="3" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="Q3" s="3" t="s">
+      <x:c r="R3" s="3" t="s">
         <x:v>16</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:17">
+    <x:row r="4" spans="1:18">
       <x:c r="A4" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C4" s="4" t="n">
-        <x:v>18631</x:v>
+      <x:c r="C4" s="3" t="s">
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D4" s="4" t="n">
-        <x:v>19657</x:v>
+        <x:v>43558</x:v>
       </x:c>
       <x:c r="E4" s="4" t="n">
-        <x:v>20642</x:v>
+        <x:v>44474</x:v>
       </x:c>
       <x:c r="F4" s="4" t="n">
-        <x:v>26881</x:v>
+        <x:v>48448</x:v>
       </x:c>
       <x:c r="G4" s="4" t="n">
-        <x:v>29249</x:v>
+        <x:v>44541</x:v>
       </x:c>
       <x:c r="H4" s="4" t="n">
-        <x:v>30867</x:v>
+        <x:v>48288</x:v>
       </x:c>
       <x:c r="I4" s="4" t="n">
-        <x:v>33001</x:v>
+        <x:v>48241</x:v>
       </x:c>
       <x:c r="J4" s="4" t="n">
-        <x:v>34603</x:v>
+        <x:v>48305</x:v>
       </x:c>
       <x:c r="K4" s="4" t="n">
-        <x:v>35240</x:v>
+        <x:v>48996</x:v>
       </x:c>
       <x:c r="L4" s="4" t="n">
-        <x:v>34604</x:v>
+        <x:v>49931</x:v>
       </x:c>
       <x:c r="M4" s="4" t="n">
-        <x:v>35823</x:v>
+        <x:v>47902</x:v>
       </x:c>
       <x:c r="N4" s="4" t="n">
-        <x:v>32862</x:v>
+        <x:v>49226</x:v>
       </x:c>
       <x:c r="O4" s="4" t="n">
-        <x:v>31196</x:v>
+        <x:v>48016</x:v>
       </x:c>
       <x:c r="P4" s="4" t="n">
-        <x:v>32146</x:v>
+        <x:v>50268</x:v>
       </x:c>
       <x:c r="Q4" s="4" t="n">
-        <x:v>31995</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:17">
-      <x:c r="B5" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C5" s="4" t="n">
-        <x:v>0</x:v>
+        <x:v>48864</x:v>
+      </x:c>
+      <x:c r="R4" s="4" t="n">
+        <x:v>50442</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:18">
+      <x:c r="C5" s="3" t="s">
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D5" s="4" t="n">
         <x:v>0</x:v>
@@ -678,942 +682,945 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G5" s="4" t="n">
-        <x:v>667</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="4" t="n">
-        <x:v>658</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I5" s="4" t="n">
-        <x:v>1084</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J5" s="4" t="n">
-        <x:v>931</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K5" s="4" t="n">
-        <x:v>883</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L5" s="4" t="n">
-        <x:v>713</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M5" s="4" t="n">
-        <x:v>869</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N5" s="4" t="n">
-        <x:v>842</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O5" s="4" t="n">
-        <x:v>568</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P5" s="4" t="n">
-        <x:v>1048</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q5" s="4" t="n">
-        <x:v>831</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:17">
-      <x:c r="B6" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C6" s="4" t="n">
-        <x:v>901</x:v>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R5" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:18">
+      <x:c r="C6" s="3" t="s">
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D6" s="4" t="n">
-        <x:v>1059</x:v>
+        <x:v>8736</x:v>
       </x:c>
       <x:c r="E6" s="4" t="n">
-        <x:v>1099</x:v>
+        <x:v>8902</x:v>
       </x:c>
       <x:c r="F6" s="4" t="n">
-        <x:v>4715</x:v>
+        <x:v>10027</x:v>
       </x:c>
       <x:c r="G6" s="4" t="n">
-        <x:v>4855</x:v>
+        <x:v>8861</x:v>
       </x:c>
       <x:c r="H6" s="4" t="n">
-        <x:v>5853</x:v>
+        <x:v>10177</x:v>
       </x:c>
       <x:c r="I6" s="4" t="n">
-        <x:v>5143</x:v>
+        <x:v>9955</x:v>
       </x:c>
       <x:c r="J6" s="4" t="n">
-        <x:v>5430</x:v>
+        <x:v>10016</x:v>
       </x:c>
       <x:c r="K6" s="4" t="n">
-        <x:v>5348</x:v>
+        <x:v>9764</x:v>
       </x:c>
       <x:c r="L6" s="4" t="n">
-        <x:v>5618</x:v>
+        <x:v>10049</x:v>
       </x:c>
       <x:c r="M6" s="4" t="n">
-        <x:v>6230</x:v>
+        <x:v>9265</x:v>
       </x:c>
       <x:c r="N6" s="4" t="n">
-        <x:v>5777</x:v>
+        <x:v>10505</x:v>
       </x:c>
       <x:c r="O6" s="4" t="n">
-        <x:v>5788</x:v>
+        <x:v>9056</x:v>
       </x:c>
       <x:c r="P6" s="4" t="n">
-        <x:v>6934</x:v>
+        <x:v>9874</x:v>
       </x:c>
       <x:c r="Q6" s="4" t="n">
-        <x:v>6868</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:17">
-      <x:c r="B7" s="3" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C7" s="4" t="n">
-        <x:v>790</x:v>
+        <x:v>9358</x:v>
+      </x:c>
+      <x:c r="R6" s="4" t="n">
+        <x:v>10194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:18">
+      <x:c r="C7" s="3" t="s">
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D7" s="4" t="n">
-        <x:v>732</x:v>
+        <x:v>3397</x:v>
       </x:c>
       <x:c r="E7" s="4" t="n">
-        <x:v>731</x:v>
+        <x:v>3442</x:v>
       </x:c>
       <x:c r="F7" s="4" t="n">
-        <x:v>648</x:v>
+        <x:v>3769</x:v>
       </x:c>
       <x:c r="G7" s="4" t="n">
-        <x:v>765</x:v>
+        <x:v>3176</x:v>
       </x:c>
       <x:c r="H7" s="4" t="n">
-        <x:v>714</x:v>
+        <x:v>3658</x:v>
       </x:c>
       <x:c r="I7" s="4" t="n">
-        <x:v>831</x:v>
+        <x:v>3434</x:v>
       </x:c>
       <x:c r="J7" s="4" t="n">
-        <x:v>777</x:v>
+        <x:v>3393</x:v>
       </x:c>
       <x:c r="K7" s="4" t="n">
-        <x:v>887</x:v>
+        <x:v>3400</x:v>
       </x:c>
       <x:c r="L7" s="4" t="n">
-        <x:v>928</x:v>
+        <x:v>3398</x:v>
       </x:c>
       <x:c r="M7" s="4" t="n">
-        <x:v>1164</x:v>
+        <x:v>3070</x:v>
       </x:c>
       <x:c r="N7" s="4" t="n">
-        <x:v>1044</x:v>
+        <x:v>3572</x:v>
       </x:c>
       <x:c r="O7" s="4" t="n">
-        <x:v>907</x:v>
+        <x:v>3209</x:v>
       </x:c>
       <x:c r="P7" s="4" t="n">
+        <x:v>3491</x:v>
+      </x:c>
+      <x:c r="Q7" s="4" t="n">
+        <x:v>3082</x:v>
+      </x:c>
+      <x:c r="R7" s="4" t="n">
+        <x:v>3163</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:18">
+      <x:c r="C8" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D8" s="4" t="n">
+        <x:v>1706</x:v>
+      </x:c>
+      <x:c r="E8" s="4" t="n">
+        <x:v>1744</x:v>
+      </x:c>
+      <x:c r="F8" s="4" t="n">
+        <x:v>1597</x:v>
+      </x:c>
+      <x:c r="G8" s="4" t="n">
+        <x:v>1396</x:v>
+      </x:c>
+      <x:c r="H8" s="4" t="n">
+        <x:v>1420</x:v>
+      </x:c>
+      <x:c r="I8" s="4" t="n">
+        <x:v>1239</x:v>
+      </x:c>
+      <x:c r="J8" s="4" t="n">
+        <x:v>1311</x:v>
+      </x:c>
+      <x:c r="K8" s="4" t="n">
+        <x:v>1225</x:v>
+      </x:c>
+      <x:c r="L8" s="4" t="n">
+        <x:v>1236</x:v>
+      </x:c>
+      <x:c r="M8" s="4" t="n">
+        <x:v>1212</x:v>
+      </x:c>
+      <x:c r="N8" s="4" t="n">
+        <x:v>1317</x:v>
+      </x:c>
+      <x:c r="O8" s="4" t="n">
+        <x:v>1198</x:v>
+      </x:c>
+      <x:c r="P8" s="4" t="n">
+        <x:v>1401</x:v>
+      </x:c>
+      <x:c r="Q8" s="4" t="n">
+        <x:v>1281</x:v>
+      </x:c>
+      <x:c r="R8" s="4" t="n">
+        <x:v>1373</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:18">
+      <x:c r="C9" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D9" s="4" t="n">
+        <x:v>2949</x:v>
+      </x:c>
+      <x:c r="E9" s="4" t="n">
+        <x:v>2576</x:v>
+      </x:c>
+      <x:c r="F9" s="4" t="n">
+        <x:v>2579</x:v>
+      </x:c>
+      <x:c r="G9" s="4" t="n">
+        <x:v>2359</x:v>
+      </x:c>
+      <x:c r="H9" s="4" t="n">
+        <x:v>2300</x:v>
+      </x:c>
+      <x:c r="I9" s="4" t="n">
+        <x:v>2088</x:v>
+      </x:c>
+      <x:c r="J9" s="4" t="n">
+        <x:v>1955</x:v>
+      </x:c>
+      <x:c r="K9" s="4" t="n">
+        <x:v>1832</x:v>
+      </x:c>
+      <x:c r="L9" s="4" t="n">
+        <x:v>1807</x:v>
+      </x:c>
+      <x:c r="M9" s="4" t="n">
+        <x:v>1682</x:v>
+      </x:c>
+      <x:c r="N9" s="4" t="n">
+        <x:v>1655</x:v>
+      </x:c>
+      <x:c r="O9" s="4" t="n">
+        <x:v>1517</x:v>
+      </x:c>
+      <x:c r="P9" s="4" t="n">
+        <x:v>1671</x:v>
+      </x:c>
+      <x:c r="Q9" s="4" t="n">
+        <x:v>1595</x:v>
+      </x:c>
+      <x:c r="R9" s="4" t="n">
+        <x:v>1668</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:18">
+      <x:c r="C10" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D10" s="4" t="n">
+        <x:v>1822</x:v>
+      </x:c>
+      <x:c r="E10" s="4" t="n">
+        <x:v>1721</x:v>
+      </x:c>
+      <x:c r="F10" s="4" t="n">
+        <x:v>1793</x:v>
+      </x:c>
+      <x:c r="G10" s="4" t="n">
+        <x:v>1735</x:v>
+      </x:c>
+      <x:c r="H10" s="4" t="n">
+        <x:v>1810</x:v>
+      </x:c>
+      <x:c r="I10" s="4" t="n">
+        <x:v>1663</x:v>
+      </x:c>
+      <x:c r="J10" s="4" t="n">
+        <x:v>1630</x:v>
+      </x:c>
+      <x:c r="K10" s="4" t="n">
+        <x:v>1485</x:v>
+      </x:c>
+      <x:c r="L10" s="4" t="n">
+        <x:v>1425</x:v>
+      </x:c>
+      <x:c r="M10" s="4" t="n">
+        <x:v>1376</x:v>
+      </x:c>
+      <x:c r="N10" s="4" t="n">
+        <x:v>1290</x:v>
+      </x:c>
+      <x:c r="O10" s="4" t="n">
+        <x:v>1304</x:v>
+      </x:c>
+      <x:c r="P10" s="4" t="n">
+        <x:v>1265</x:v>
+      </x:c>
+      <x:c r="Q10" s="4" t="n">
+        <x:v>1166</x:v>
+      </x:c>
+      <x:c r="R10" s="4" t="n">
+        <x:v>1102</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:18">
+      <x:c r="C11" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D11" s="4" t="n">
+        <x:v>1651</x:v>
+      </x:c>
+      <x:c r="E11" s="4" t="n">
+        <x:v>1600</x:v>
+      </x:c>
+      <x:c r="F11" s="4" t="n">
+        <x:v>1605</x:v>
+      </x:c>
+      <x:c r="G11" s="4" t="n">
+        <x:v>1642</x:v>
+      </x:c>
+      <x:c r="H11" s="4" t="n">
+        <x:v>1498</x:v>
+      </x:c>
+      <x:c r="I11" s="4" t="n">
+        <x:v>1548</x:v>
+      </x:c>
+      <x:c r="J11" s="4" t="n">
+        <x:v>1442</x:v>
+      </x:c>
+      <x:c r="K11" s="4" t="n">
+        <x:v>1471</x:v>
+      </x:c>
+      <x:c r="L11" s="4" t="n">
+        <x:v>1347</x:v>
+      </x:c>
+      <x:c r="M11" s="4" t="n">
+        <x:v>1420</x:v>
+      </x:c>
+      <x:c r="N11" s="4" t="n">
+        <x:v>1254</x:v>
+      </x:c>
+      <x:c r="O11" s="4" t="n">
+        <x:v>1331</x:v>
+      </x:c>
+      <x:c r="P11" s="4" t="n">
+        <x:v>1329</x:v>
+      </x:c>
+      <x:c r="Q11" s="4" t="n">
+        <x:v>1162</x:v>
+      </x:c>
+      <x:c r="R11" s="4" t="n">
+        <x:v>1141</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:18">
+      <x:c r="C12" s="3" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D12" s="4" t="n">
+        <x:v>1524</x:v>
+      </x:c>
+      <x:c r="E12" s="4" t="n">
+        <x:v>1443</x:v>
+      </x:c>
+      <x:c r="F12" s="4" t="n">
+        <x:v>1499</x:v>
+      </x:c>
+      <x:c r="G12" s="4" t="n">
+        <x:v>1572</x:v>
+      </x:c>
+      <x:c r="H12" s="4" t="n">
+        <x:v>1634</x:v>
+      </x:c>
+      <x:c r="I12" s="4" t="n">
+        <x:v>1692</x:v>
+      </x:c>
+      <x:c r="J12" s="4" t="n">
+        <x:v>1703</x:v>
+      </x:c>
+      <x:c r="K12" s="4" t="n">
+        <x:v>1712</x:v>
+      </x:c>
+      <x:c r="L12" s="4" t="n">
+        <x:v>1446</x:v>
+      </x:c>
+      <x:c r="M12" s="4" t="n">
+        <x:v>1399</x:v>
+      </x:c>
+      <x:c r="N12" s="4" t="n">
+        <x:v>1410</x:v>
+      </x:c>
+      <x:c r="O12" s="4" t="n">
+        <x:v>1493</x:v>
+      </x:c>
+      <x:c r="P12" s="4" t="n">
+        <x:v>1488</x:v>
+      </x:c>
+      <x:c r="Q12" s="4" t="n">
+        <x:v>1413</x:v>
+      </x:c>
+      <x:c r="R12" s="4" t="n">
+        <x:v>1430</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:18">
+      <x:c r="C13" s="3" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D13" s="4" t="n">
+        <x:v>1254</x:v>
+      </x:c>
+      <x:c r="E13" s="4" t="n">
+        <x:v>1195</x:v>
+      </x:c>
+      <x:c r="F13" s="4" t="n">
+        <x:v>1308</x:v>
+      </x:c>
+      <x:c r="G13" s="4" t="n">
+        <x:v>1236</x:v>
+      </x:c>
+      <x:c r="H13" s="4" t="n">
+        <x:v>1304</x:v>
+      </x:c>
+      <x:c r="I13" s="4" t="n">
+        <x:v>1332</x:v>
+      </x:c>
+      <x:c r="J13" s="4" t="n">
+        <x:v>1424</x:v>
+      </x:c>
+      <x:c r="K13" s="4" t="n">
+        <x:v>1464</x:v>
+      </x:c>
+      <x:c r="L13" s="4" t="n">
+        <x:v>1348</x:v>
+      </x:c>
+      <x:c r="M13" s="4" t="n">
+        <x:v>1378</x:v>
+      </x:c>
+      <x:c r="N13" s="4" t="n">
+        <x:v>1509</x:v>
+      </x:c>
+      <x:c r="O13" s="4" t="n">
+        <x:v>1492</x:v>
+      </x:c>
+      <x:c r="P13" s="4" t="n">
+        <x:v>1499</x:v>
+      </x:c>
+      <x:c r="Q13" s="4" t="n">
+        <x:v>1490</x:v>
+      </x:c>
+      <x:c r="R13" s="4" t="n">
+        <x:v>1522</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:18">
+      <x:c r="C14" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D14" s="4" t="n">
+        <x:v>1227</x:v>
+      </x:c>
+      <x:c r="E14" s="4" t="n">
+        <x:v>1191</x:v>
+      </x:c>
+      <x:c r="F14" s="4" t="n">
+        <x:v>1196</x:v>
+      </x:c>
+      <x:c r="G14" s="4" t="n">
+        <x:v>1181</x:v>
+      </x:c>
+      <x:c r="H14" s="4" t="n">
         <x:v>1157</x:v>
       </x:c>
-      <x:c r="Q7" s="4" t="n">
-        <x:v>1085</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:17">
-      <x:c r="B8" s="3" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C8" s="4" t="n">
-        <x:v>469</x:v>
-      </x:c>
-      <x:c r="D8" s="4" t="n">
-        <x:v>464</x:v>
-      </x:c>
-      <x:c r="E8" s="4" t="n">
-        <x:v>397</x:v>
-      </x:c>
-      <x:c r="F8" s="4" t="n">
-        <x:v>379</x:v>
-      </x:c>
-      <x:c r="G8" s="4" t="n">
-        <x:v>370</x:v>
-      </x:c>
-      <x:c r="H8" s="4" t="n">
-        <x:v>274</x:v>
-      </x:c>
-      <x:c r="I8" s="4" t="n">
-        <x:v>361</x:v>
-      </x:c>
-      <x:c r="J8" s="4" t="n">
-        <x:v>330</x:v>
-      </x:c>
-      <x:c r="K8" s="4" t="n">
-        <x:v>380</x:v>
-      </x:c>
-      <x:c r="L8" s="4" t="n">
-        <x:v>362</x:v>
-      </x:c>
-      <x:c r="M8" s="4" t="n">
-        <x:v>431</x:v>
-      </x:c>
-      <x:c r="N8" s="4" t="n">
-        <x:v>429</x:v>
-      </x:c>
-      <x:c r="O8" s="4" t="n">
-        <x:v>438</x:v>
-      </x:c>
-      <x:c r="P8" s="4" t="n">
-        <x:v>508</x:v>
-      </x:c>
-      <x:c r="Q8" s="4" t="n">
-        <x:v>495</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:17">
-      <x:c r="B9" s="3" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C9" s="4" t="n">
-        <x:v>373</x:v>
-      </x:c>
-      <x:c r="D9" s="4" t="n">
-        <x:v>319</x:v>
-      </x:c>
-      <x:c r="E9" s="4" t="n">
-        <x:v>261</x:v>
-      </x:c>
-      <x:c r="F9" s="4" t="n">
-        <x:v>217</x:v>
-      </x:c>
-      <x:c r="G9" s="4" t="n">
-        <x:v>232</x:v>
-      </x:c>
-      <x:c r="H9" s="4" t="n">
-        <x:v>223</x:v>
-      </x:c>
-      <x:c r="I9" s="4" t="n">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="J9" s="4" t="n">
-        <x:v>181</x:v>
-      </x:c>
-      <x:c r="K9" s="4" t="n">
-        <x:v>212</x:v>
-      </x:c>
-      <x:c r="L9" s="4" t="n">
-        <x:v>201</x:v>
-      </x:c>
-      <x:c r="M9" s="4" t="n">
-        <x:v>205</x:v>
-      </x:c>
-      <x:c r="N9" s="4" t="n">
-        <x:v>178</x:v>
-      </x:c>
-      <x:c r="O9" s="4" t="n">
-        <x:v>214</x:v>
-      </x:c>
-      <x:c r="P9" s="4" t="n">
-        <x:v>206</x:v>
-      </x:c>
-      <x:c r="Q9" s="4" t="n">
-        <x:v>231</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:17">
-      <x:c r="B10" s="3" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C10" s="4" t="n">
-        <x:v>321</x:v>
-      </x:c>
-      <x:c r="D10" s="4" t="n">
-        <x:v>282</x:v>
-      </x:c>
-      <x:c r="E10" s="4" t="n">
-        <x:v>257</x:v>
-      </x:c>
-      <x:c r="F10" s="4" t="n">
-        <x:v>257</x:v>
-      </x:c>
-      <x:c r="G10" s="4" t="n">
-        <x:v>302</x:v>
-      </x:c>
-      <x:c r="H10" s="4" t="n">
-        <x:v>309</x:v>
-      </x:c>
-      <x:c r="I10" s="4" t="n">
-        <x:v>259</x:v>
-      </x:c>
-      <x:c r="J10" s="4" t="n">
-        <x:v>277</x:v>
-      </x:c>
-      <x:c r="K10" s="4" t="n">
-        <x:v>227</x:v>
-      </x:c>
-      <x:c r="L10" s="4" t="n">
-        <x:v>187</x:v>
-      </x:c>
-      <x:c r="M10" s="4" t="n">
-        <x:v>245</x:v>
-      </x:c>
-      <x:c r="N10" s="4" t="n">
-        <x:v>216</x:v>
-      </x:c>
-      <x:c r="O10" s="4" t="n">
-        <x:v>194</x:v>
-      </x:c>
-      <x:c r="P10" s="4" t="n">
-        <x:v>187</x:v>
-      </x:c>
-      <x:c r="Q10" s="4" t="n">
-        <x:v>212</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:17">
-      <x:c r="B11" s="3" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C11" s="4" t="n">
-        <x:v>332</x:v>
-      </x:c>
-      <x:c r="D11" s="4" t="n">
-        <x:v>273</x:v>
-      </x:c>
-      <x:c r="E11" s="4" t="n">
-        <x:v>260</x:v>
-      </x:c>
-      <x:c r="F11" s="4" t="n">
-        <x:v>284</x:v>
-      </x:c>
-      <x:c r="G11" s="4" t="n">
-        <x:v>280</x:v>
-      </x:c>
-      <x:c r="H11" s="4" t="n">
-        <x:v>304</x:v>
-      </x:c>
-      <x:c r="I11" s="4" t="n">
-        <x:v>255</x:v>
-      </x:c>
-      <x:c r="J11" s="4" t="n">
-        <x:v>249</x:v>
-      </x:c>
-      <x:c r="K11" s="4" t="n">
-        <x:v>253</x:v>
-      </x:c>
-      <x:c r="L11" s="4" t="n">
-        <x:v>339</x:v>
-      </x:c>
-      <x:c r="M11" s="4" t="n">
-        <x:v>294</x:v>
-      </x:c>
-      <x:c r="N11" s="4" t="n">
-        <x:v>283</x:v>
-      </x:c>
-      <x:c r="O11" s="4" t="n">
-        <x:v>278</x:v>
-      </x:c>
-      <x:c r="P11" s="4" t="n">
-        <x:v>286</x:v>
-      </x:c>
-      <x:c r="Q11" s="4" t="n">
-        <x:v>207</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:17">
-      <x:c r="B12" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C12" s="4" t="n">
-        <x:v>257</x:v>
-      </x:c>
-      <x:c r="D12" s="4" t="n">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="E12" s="4" t="n">
-        <x:v>225</x:v>
-      </x:c>
-      <x:c r="F12" s="4" t="n">
-        <x:v>264</x:v>
-      </x:c>
-      <x:c r="G12" s="4" t="n">
-        <x:v>241</x:v>
-      </x:c>
-      <x:c r="H12" s="4" t="n">
-        <x:v>275</x:v>
-      </x:c>
-      <x:c r="I12" s="4" t="n">
-        <x:v>358</x:v>
-      </x:c>
-      <x:c r="J12" s="4" t="n">
-        <x:v>318</x:v>
-      </x:c>
-      <x:c r="K12" s="4" t="n">
-        <x:v>274</x:v>
-      </x:c>
-      <x:c r="L12" s="4" t="n">
-        <x:v>323</x:v>
-      </x:c>
-      <x:c r="M12" s="4" t="n">
-        <x:v>316</x:v>
-      </x:c>
-      <x:c r="N12" s="4" t="n">
-        <x:v>310</x:v>
-      </x:c>
-      <x:c r="O12" s="4" t="n">
-        <x:v>327</x:v>
-      </x:c>
-      <x:c r="P12" s="4" t="n">
-        <x:v>364</x:v>
-      </x:c>
-      <x:c r="Q12" s="4" t="n">
-        <x:v>388</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:17">
-      <x:c r="B13" s="3" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C13" s="4" t="n">
-        <x:v>322</x:v>
-      </x:c>
-      <x:c r="D13" s="4" t="n">
-        <x:v>294</x:v>
-      </x:c>
-      <x:c r="E13" s="4" t="n">
-        <x:v>284</x:v>
-      </x:c>
-      <x:c r="F13" s="4" t="n">
-        <x:v>327</x:v>
-      </x:c>
-      <x:c r="G13" s="4" t="n">
-        <x:v>322</x:v>
-      </x:c>
-      <x:c r="H13" s="4" t="n">
-        <x:v>280</x:v>
-      </x:c>
-      <x:c r="I13" s="4" t="n">
-        <x:v>332</x:v>
-      </x:c>
-      <x:c r="J13" s="4" t="n">
-        <x:v>379</x:v>
-      </x:c>
-      <x:c r="K13" s="4" t="n">
-        <x:v>400</x:v>
-      </x:c>
-      <x:c r="L13" s="4" t="n">
-        <x:v>373</x:v>
-      </x:c>
-      <x:c r="M13" s="4" t="n">
-        <x:v>417</x:v>
-      </x:c>
-      <x:c r="N13" s="4" t="n">
-        <x:v>381</x:v>
-      </x:c>
-      <x:c r="O13" s="4" t="n">
-        <x:v>385</x:v>
-      </x:c>
-      <x:c r="P13" s="4" t="n">
-        <x:v>435</x:v>
-      </x:c>
-      <x:c r="Q13" s="4" t="n">
-        <x:v>457</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:17">
-      <x:c r="B14" s="3" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C14" s="4" t="n">
-        <x:v>410</x:v>
-      </x:c>
-      <x:c r="D14" s="4" t="n">
-        <x:v>407</x:v>
-      </x:c>
-      <x:c r="E14" s="4" t="n">
-        <x:v>425</x:v>
-      </x:c>
-      <x:c r="F14" s="4" t="n">
-        <x:v>418</x:v>
-      </x:c>
-      <x:c r="G14" s="4" t="n">
-        <x:v>442</x:v>
-      </x:c>
-      <x:c r="H14" s="4" t="n">
-        <x:v>470</x:v>
-      </x:c>
       <x:c r="I14" s="4" t="n">
-        <x:v>457</x:v>
+        <x:v>1260</x:v>
       </x:c>
       <x:c r="J14" s="4" t="n">
-        <x:v>538</x:v>
+        <x:v>1299</x:v>
       </x:c>
       <x:c r="K14" s="4" t="n">
-        <x:v>455</x:v>
+        <x:v>1304</x:v>
       </x:c>
       <x:c r="L14" s="4" t="n">
-        <x:v>499</x:v>
+        <x:v>1191</x:v>
       </x:c>
       <x:c r="M14" s="4" t="n">
-        <x:v>470</x:v>
+        <x:v>1220</x:v>
       </x:c>
       <x:c r="N14" s="4" t="n">
-        <x:v>508</x:v>
+        <x:v>1260</x:v>
       </x:c>
       <x:c r="O14" s="4" t="n">
-        <x:v>480</x:v>
+        <x:v>1230</x:v>
       </x:c>
       <x:c r="P14" s="4" t="n">
-        <x:v>475</x:v>
+        <x:v>1354</x:v>
       </x:c>
       <x:c r="Q14" s="4" t="n">
-        <x:v>491</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:17">
-      <x:c r="B15" s="3" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C15" s="4" t="n">
-        <x:v>585</x:v>
+        <x:v>1353</x:v>
+      </x:c>
+      <x:c r="R14" s="4" t="n">
+        <x:v>1377</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:18">
+      <x:c r="C15" s="3" t="s">
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D15" s="4" t="n">
-        <x:v>631</x:v>
+        <x:v>1390</x:v>
       </x:c>
       <x:c r="E15" s="4" t="n">
-        <x:v>636</x:v>
+        <x:v>1374</x:v>
       </x:c>
       <x:c r="F15" s="4" t="n">
-        <x:v>615</x:v>
+        <x:v>1383</x:v>
       </x:c>
       <x:c r="G15" s="4" t="n">
-        <x:v>724</x:v>
+        <x:v>1275</x:v>
       </x:c>
       <x:c r="H15" s="4" t="n">
-        <x:v>677</x:v>
+        <x:v>1392</x:v>
       </x:c>
       <x:c r="I15" s="4" t="n">
-        <x:v>743</x:v>
+        <x:v>1256</x:v>
       </x:c>
       <x:c r="J15" s="4" t="n">
-        <x:v>698</x:v>
+        <x:v>1341</x:v>
       </x:c>
       <x:c r="K15" s="4" t="n">
-        <x:v>676</x:v>
+        <x:v>1265</x:v>
       </x:c>
       <x:c r="L15" s="4" t="n">
-        <x:v>697</x:v>
+        <x:v>1282</x:v>
       </x:c>
       <x:c r="M15" s="4" t="n">
-        <x:v>722</x:v>
+        <x:v>1234</x:v>
       </x:c>
       <x:c r="N15" s="4" t="n">
-        <x:v>641</x:v>
+        <x:v>1339</x:v>
       </x:c>
       <x:c r="O15" s="4" t="n">
-        <x:v>670</x:v>
+        <x:v>1277</x:v>
       </x:c>
       <x:c r="P15" s="4" t="n">
-        <x:v>673</x:v>
+        <x:v>1410</x:v>
       </x:c>
       <x:c r="Q15" s="4" t="n">
-        <x:v>680</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:17">
-      <x:c r="B16" s="3" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C16" s="4" t="n">
-        <x:v>812</x:v>
+        <x:v>1289</x:v>
+      </x:c>
+      <x:c r="R15" s="4" t="n">
+        <x:v>1410</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:18">
+      <x:c r="C16" s="3" t="s">
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D16" s="4" t="n">
-        <x:v>804</x:v>
+        <x:v>1313</x:v>
       </x:c>
       <x:c r="E16" s="4" t="n">
-        <x:v>772</x:v>
+        <x:v>1314</x:v>
       </x:c>
       <x:c r="F16" s="4" t="n">
-        <x:v>902</x:v>
+        <x:v>1482</x:v>
       </x:c>
       <x:c r="G16" s="4" t="n">
-        <x:v>948</x:v>
+        <x:v>1437</x:v>
       </x:c>
       <x:c r="H16" s="4" t="n">
-        <x:v>937</x:v>
+        <x:v>1550</x:v>
       </x:c>
       <x:c r="I16" s="4" t="n">
-        <x:v>1102</x:v>
+        <x:v>1588</x:v>
       </x:c>
       <x:c r="J16" s="4" t="n">
-        <x:v>1205</x:v>
+        <x:v>1715</x:v>
       </x:c>
       <x:c r="K16" s="4" t="n">
-        <x:v>1099</x:v>
+        <x:v>1747</x:v>
       </x:c>
       <x:c r="L16" s="4" t="n">
-        <x:v>1166</x:v>
+        <x:v>1708</x:v>
       </x:c>
       <x:c r="M16" s="4" t="n">
-        <x:v>1063</x:v>
+        <x:v>1628</x:v>
       </x:c>
       <x:c r="N16" s="4" t="n">
-        <x:v>997</x:v>
+        <x:v>1619</x:v>
       </x:c>
       <x:c r="O16" s="4" t="n">
-        <x:v>980</x:v>
+        <x:v>1568</x:v>
       </x:c>
       <x:c r="P16" s="4" t="n">
-        <x:v>992</x:v>
+        <x:v>1610</x:v>
       </x:c>
       <x:c r="Q16" s="4" t="n">
-        <x:v>1037</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:17">
-      <x:c r="B17" s="3" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C17" s="4" t="n">
-        <x:v>1406</x:v>
+        <x:v>1582</x:v>
+      </x:c>
+      <x:c r="R16" s="4" t="n">
+        <x:v>1728</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:18">
+      <x:c r="C17" s="3" t="s">
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D17" s="4" t="n">
-        <x:v>1378</x:v>
+        <x:v>1678</x:v>
       </x:c>
       <x:c r="E17" s="4" t="n">
-        <x:v>1291</x:v>
+        <x:v>1693</x:v>
       </x:c>
       <x:c r="F17" s="4" t="n">
-        <x:v>1388</x:v>
+        <x:v>1708</x:v>
       </x:c>
       <x:c r="G17" s="4" t="n">
-        <x:v>1478</x:v>
+        <x:v>1583</x:v>
       </x:c>
       <x:c r="H17" s="4" t="n">
-        <x:v>1549</x:v>
+        <x:v>1685</x:v>
       </x:c>
       <x:c r="I17" s="4" t="n">
-        <x:v>1542</x:v>
+        <x:v>1743</x:v>
       </x:c>
       <x:c r="J17" s="4" t="n">
-        <x:v>1770</x:v>
+        <x:v>1806</x:v>
       </x:c>
       <x:c r="K17" s="4" t="n">
-        <x:v>1972</x:v>
+        <x:v>1905</x:v>
       </x:c>
       <x:c r="L17" s="4" t="n">
-        <x:v>1914</x:v>
+        <x:v>2076</x:v>
       </x:c>
       <x:c r="M17" s="4" t="n">
-        <x:v>1945</x:v>
+        <x:v>2149</x:v>
       </x:c>
       <x:c r="N17" s="4" t="n">
-        <x:v>1773</x:v>
+        <x:v>2309</x:v>
       </x:c>
       <x:c r="O17" s="4" t="n">
-        <x:v>1635</x:v>
+        <x:v>2277</x:v>
       </x:c>
       <x:c r="P17" s="4" t="n">
-        <x:v>1610</x:v>
+        <x:v>2323</x:v>
       </x:c>
       <x:c r="Q17" s="4" t="n">
-        <x:v>1459</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:17">
-      <x:c r="B18" s="3" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C18" s="4" t="n">
-        <x:v>1846</x:v>
+        <x:v>2294</x:v>
+      </x:c>
+      <x:c r="R17" s="4" t="n">
+        <x:v>2248</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:18">
+      <x:c r="C18" s="3" t="s">
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D18" s="4" t="n">
-        <x:v>2040</x:v>
+        <x:v>2125</x:v>
       </x:c>
       <x:c r="E18" s="4" t="n">
-        <x:v>2191</x:v>
+        <x:v>2204</x:v>
       </x:c>
       <x:c r="F18" s="4" t="n">
-        <x:v>2580</x:v>
+        <x:v>2353</x:v>
       </x:c>
       <x:c r="G18" s="4" t="n">
-        <x:v>2666</x:v>
+        <x:v>2306</x:v>
       </x:c>
       <x:c r="H18" s="4" t="n">
-        <x:v>2703</x:v>
+        <x:v>2377</x:v>
       </x:c>
       <x:c r="I18" s="4" t="n">
-        <x:v>2882</x:v>
+        <x:v>2439</x:v>
       </x:c>
       <x:c r="J18" s="4" t="n">
-        <x:v>2915</x:v>
+        <x:v>2389</x:v>
       </x:c>
       <x:c r="K18" s="4" t="n">
-        <x:v>2811</x:v>
+        <x:v>2426</x:v>
       </x:c>
       <x:c r="L18" s="4" t="n">
-        <x:v>2583</x:v>
+        <x:v>2490</x:v>
       </x:c>
       <x:c r="M18" s="4" t="n">
-        <x:v>2514</x:v>
+        <x:v>2431</x:v>
       </x:c>
       <x:c r="N18" s="4" t="n">
-        <x:v>2376</x:v>
+        <x:v>2280</x:v>
       </x:c>
       <x:c r="O18" s="4" t="n">
-        <x:v>2186</x:v>
+        <x:v>2437</x:v>
       </x:c>
       <x:c r="P18" s="4" t="n">
-        <x:v>2074</x:v>
+        <x:v>2547</x:v>
       </x:c>
       <x:c r="Q18" s="4" t="n">
-        <x:v>2245</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:17">
-      <x:c r="B19" s="3" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C19" s="4" t="n">
-        <x:v>2740</x:v>
+        <x:v>2768</x:v>
+      </x:c>
+      <x:c r="R18" s="4" t="n">
+        <x:v>2807</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:18">
+      <x:c r="C19" s="3" t="s">
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D19" s="4" t="n">
-        <x:v>2907</x:v>
+        <x:v>2768</x:v>
       </x:c>
       <x:c r="E19" s="4" t="n">
-        <x:v>3013</x:v>
+        <x:v>3002</x:v>
       </x:c>
       <x:c r="F19" s="4" t="n">
-        <x:v>3420</x:v>
+        <x:v>3221</x:v>
       </x:c>
       <x:c r="G19" s="4" t="n">
-        <x:v>3664</x:v>
+        <x:v>2889</x:v>
       </x:c>
       <x:c r="H19" s="4" t="n">
-        <x:v>3772</x:v>
+        <x:v>3134</x:v>
       </x:c>
       <x:c r="I19" s="4" t="n">
-        <x:v>4126</x:v>
+        <x:v>3271</x:v>
       </x:c>
       <x:c r="J19" s="4" t="n">
-        <x:v>4451</x:v>
+        <x:v>3208</x:v>
       </x:c>
       <x:c r="K19" s="4" t="n">
-        <x:v>4518</x:v>
+        <x:v>3330</x:v>
       </x:c>
       <x:c r="L19" s="4" t="n">
-        <x:v>4060</x:v>
+        <x:v>3432</x:v>
       </x:c>
       <x:c r="M19" s="4" t="n">
-        <x:v>4066</x:v>
+        <x:v>3177</x:v>
       </x:c>
       <x:c r="N19" s="4" t="n">
-        <x:v>3398</x:v>
+        <x:v>3095</x:v>
       </x:c>
       <x:c r="O19" s="4" t="n">
-        <x:v>3065</x:v>
+        <x:v>3125</x:v>
       </x:c>
       <x:c r="P19" s="4" t="n">
-        <x:v>2856</x:v>
+        <x:v>3094</x:v>
       </x:c>
       <x:c r="Q19" s="4" t="n">
-        <x:v>2739</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:17">
-      <x:c r="B20" s="3" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C20" s="4" t="n">
-        <x:v>2784</x:v>
+        <x:v>3005</x:v>
+      </x:c>
+      <x:c r="R19" s="4" t="n">
+        <x:v>2983</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:18">
+      <x:c r="C20" s="3" t="s">
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D20" s="4" t="n">
-        <x:v>3084</x:v>
+        <x:v>3074</x:v>
       </x:c>
       <x:c r="E20" s="4" t="n">
-        <x:v>3587</x:v>
+        <x:v>3368</x:v>
       </x:c>
       <x:c r="F20" s="4" t="n">
-        <x:v>4220</x:v>
+        <x:v>3930</x:v>
       </x:c>
       <x:c r="G20" s="4" t="n">
+        <x:v>3705</x:v>
+      </x:c>
+      <x:c r="H20" s="4" t="n">
+        <x:v>3870</x:v>
+      </x:c>
+      <x:c r="I20" s="4" t="n">
+        <x:v>3882</x:v>
+      </x:c>
+      <x:c r="J20" s="4" t="n">
+        <x:v>3919</x:v>
+      </x:c>
+      <x:c r="K20" s="4" t="n">
+        <x:v>4052</x:v>
+      </x:c>
+      <x:c r="L20" s="4" t="n">
+        <x:v>4205</x:v>
+      </x:c>
+      <x:c r="M20" s="4" t="n">
+        <x:v>4057</x:v>
+      </x:c>
+      <x:c r="N20" s="4" t="n">
+        <x:v>3888</x:v>
+      </x:c>
+      <x:c r="O20" s="4" t="n">
+        <x:v>3963</x:v>
+      </x:c>
+      <x:c r="P20" s="4" t="n">
+        <x:v>3924</x:v>
+      </x:c>
+      <x:c r="Q20" s="4" t="n">
+        <x:v>3850</x:v>
+      </x:c>
+      <x:c r="R20" s="4" t="n">
+        <x:v>3828</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:18">
+      <x:c r="C21" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D21" s="4" t="n">
+        <x:v>2817</x:v>
+      </x:c>
+      <x:c r="E21" s="4" t="n">
+        <x:v>3106</x:v>
+      </x:c>
+      <x:c r="F21" s="4" t="n">
+        <x:v>3575</x:v>
+      </x:c>
+      <x:c r="G21" s="4" t="n">
+        <x:v>3268</x:v>
+      </x:c>
+      <x:c r="H21" s="4" t="n">
+        <x:v>3736</x:v>
+      </x:c>
+      <x:c r="I21" s="4" t="n">
+        <x:v>3983</x:v>
+      </x:c>
+      <x:c r="J21" s="4" t="n">
+        <x:v>3892</x:v>
+      </x:c>
+      <x:c r="K21" s="4" t="n">
+        <x:v>4235</x:v>
+      </x:c>
+      <x:c r="L21" s="4" t="n">
+        <x:v>4408</x:v>
+      </x:c>
+      <x:c r="M21" s="4" t="n">
         <x:v>4239</x:v>
       </x:c>
-      <x:c r="H20" s="4" t="n">
-        <x:v>4358</x:v>
-      </x:c>
-      <x:c r="I20" s="4" t="n">
-        <x:v>4872</x:v>
-      </x:c>
-      <x:c r="J20" s="4" t="n">
-        <x:v>4998</x:v>
-      </x:c>
-      <x:c r="K20" s="4" t="n">
-        <x:v>5046</x:v>
-      </x:c>
-      <x:c r="L20" s="4" t="n">
-        <x:v>5020</x:v>
-      </x:c>
-      <x:c r="M20" s="4" t="n">
-        <x:v>5007</x:v>
-      </x:c>
-      <x:c r="N20" s="4" t="n">
-        <x:v>4569</x:v>
-      </x:c>
-      <x:c r="O20" s="4" t="n">
-        <x:v>4250</x:v>
-      </x:c>
-      <x:c r="P20" s="4" t="n">
-        <x:v>3892</x:v>
-      </x:c>
-      <x:c r="Q20" s="4" t="n">
-        <x:v>3848</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:17">
-      <x:c r="B21" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C21" s="4" t="n">
-        <x:v>2272</x:v>
-      </x:c>
-      <x:c r="D21" s="4" t="n">
-        <x:v>2464</x:v>
-      </x:c>
-      <x:c r="E21" s="4" t="n">
-        <x:v>2671</x:v>
-      </x:c>
-      <x:c r="F21" s="4" t="n">
-        <x:v>3316</x:v>
-      </x:c>
-      <x:c r="G21" s="4" t="n">
-        <x:v>3704</x:v>
-      </x:c>
-      <x:c r="H21" s="4" t="n">
-        <x:v>4036</x:v>
-      </x:c>
-      <x:c r="I21" s="4" t="n">
-        <x:v>4449</x:v>
-      </x:c>
-      <x:c r="J21" s="4" t="n">
-        <x:v>4697</x:v>
-      </x:c>
-      <x:c r="K21" s="4" t="n">
-        <x:v>5078</x:v>
-      </x:c>
-      <x:c r="L21" s="4" t="n">
-        <x:v>4802</x:v>
-      </x:c>
-      <x:c r="M21" s="4" t="n">
-        <x:v>4845</x:v>
-      </x:c>
       <x:c r="N21" s="4" t="n">
-        <x:v>4678</x:v>
+        <x:v>4118</x:v>
       </x:c>
       <x:c r="O21" s="4" t="n">
-        <x:v>4226</x:v>
+        <x:v>4361</x:v>
       </x:c>
       <x:c r="P21" s="4" t="n">
-        <x:v>3917</x:v>
+        <x:v>4308</x:v>
       </x:c>
       <x:c r="Q21" s="4" t="n">
-        <x:v>3893</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:17">
-      <x:c r="B22" s="3" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C22" s="4" t="n">
-        <x:v>1411</x:v>
+        <x:v>4257</x:v>
+      </x:c>
+      <x:c r="R21" s="4" t="n">
+        <x:v>4295</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:18">
+      <x:c r="C22" s="3" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D22" s="4" t="n">
-        <x:v>1588</x:v>
+        <x:v>2257</x:v>
       </x:c>
       <x:c r="E22" s="4" t="n">
-        <x:v>1676</x:v>
+        <x:v>2549</x:v>
       </x:c>
       <x:c r="F22" s="4" t="n">
-        <x:v>1934</x:v>
+        <x:v>2933</x:v>
       </x:c>
       <x:c r="G22" s="4" t="n">
-        <x:v>2159</x:v>
+        <x:v>2647</x:v>
       </x:c>
       <x:c r="H22" s="4" t="n">
-        <x:v>2254</x:v>
+        <x:v>2959</x:v>
       </x:c>
       <x:c r="I22" s="4" t="n">
-        <x:v>2602</x:v>
+        <x:v>3099</x:v>
       </x:c>
       <x:c r="J22" s="4" t="n">
-        <x:v>2850</x:v>
+        <x:v>3030</x:v>
       </x:c>
       <x:c r="K22" s="4" t="n">
-        <x:v>2933</x:v>
+        <x:v>3239</x:v>
       </x:c>
       <x:c r="L22" s="4" t="n">
-        <x:v>3082</x:v>
+        <x:v>3449</x:v>
       </x:c>
       <x:c r="M22" s="4" t="n">
-        <x:v>3194</x:v>
+        <x:v>3476</x:v>
       </x:c>
       <x:c r="N22" s="4" t="n">
-        <x:v>2961</x:v>
+        <x:v>3430</x:v>
       </x:c>
       <x:c r="O22" s="4" t="n">
-        <x:v>2886</x:v>
+        <x:v>3648</x:v>
       </x:c>
       <x:c r="P22" s="4" t="n">
-        <x:v>2899</x:v>
+        <x:v>3766</x:v>
       </x:c>
       <x:c r="Q22" s="4" t="n">
-        <x:v>3027</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:17">
-      <x:c r="B23" s="3" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C23" s="4" t="n">
-        <x:v>600</x:v>
+        <x:v>3884</x:v>
+      </x:c>
+      <x:c r="R22" s="4" t="n">
+        <x:v>3928</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:18">
+      <x:c r="C23" s="3" t="s">
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D23" s="4" t="n">
-        <x:v>687</x:v>
+        <x:v>1870</x:v>
       </x:c>
       <x:c r="E23" s="4" t="n">
-        <x:v>866</x:v>
+        <x:v>2050</x:v>
       </x:c>
       <x:c r="F23" s="4" t="n">
-        <x:v>997</x:v>
+        <x:v>2490</x:v>
       </x:c>
       <x:c r="G23" s="4" t="n">
-        <x:v>1191</x:v>
+        <x:v>2273</x:v>
       </x:c>
       <x:c r="H23" s="4" t="n">
-        <x:v>1221</x:v>
+        <x:v>2627</x:v>
       </x:c>
       <x:c r="I23" s="4" t="n">
-        <x:v>1366</x:v>
+        <x:v>2769</x:v>
       </x:c>
       <x:c r="J23" s="4" t="n">
-        <x:v>1609</x:v>
+        <x:v>2832</x:v>
       </x:c>
       <x:c r="K23" s="4" t="n">
-        <x:v>1788</x:v>
+        <x:v>3140</x:v>
       </x:c>
       <x:c r="L23" s="4" t="n">
-        <x:v>1737</x:v>
+        <x:v>3634</x:v>
       </x:c>
       <x:c r="M23" s="4" t="n">
-        <x:v>1826</x:v>
+        <x:v>3489</x:v>
       </x:c>
       <x:c r="N23" s="4" t="n">
-        <x:v>1501</x:v>
+        <x:v>3376</x:v>
       </x:c>
       <x:c r="O23" s="4" t="n">
-        <x:v>1719</x:v>
+        <x:v>3530</x:v>
       </x:c>
       <x:c r="P23" s="4" t="n">
-        <x:v>1633</x:v>
+        <x:v>3914</x:v>
       </x:c>
       <x:c r="Q23" s="4" t="n">
-        <x:v>1802</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:17">
+        <x:v>4035</x:v>
+      </x:c>
+      <x:c r="R23" s="4" t="n">
+        <x:v>4245</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:18">
       <x:c r="A25" s="5" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
